--- a/Assets/Res/File/Excel2Json2Cs/Output/Excel/RoleInformation.xlsx
+++ b/Assets/Res/File/Excel2Json2Cs/Output/Excel/RoleInformation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity\projects\NewGame\Assets\Res\File\Excel2Json2Cs\Output\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2B0443-42AF-4FBA-99FB-D1642FAAD30E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B336443-C3E0-4AE0-8834-7BD1E3A1D600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="5340" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,9 +52,6 @@
     <t>角色年龄</t>
   </si>
   <si>
-    <t>家族编号</t>
-  </si>
-  <si>
     <t>Age</t>
   </si>
   <si>
@@ -93,6 +90,20 @@
   </si>
   <si>
     <t>角色11</t>
+  </si>
+  <si>
+    <t>所在家族编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在聚落编号</t>
+  </si>
+  <si>
+    <t>TownId</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -420,19 +431,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,10 +455,13 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -454,13 +469,16 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -473,13 +491,16 @@
       <c r="D3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>30</v>
@@ -487,13 +508,16 @@
       <c r="D4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>31</v>
@@ -501,13 +525,16 @@
       <c r="D5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>32</v>
@@ -515,13 +542,16 @@
       <c r="D6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>33</v>
@@ -529,13 +559,16 @@
       <c r="D7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>34</v>
@@ -543,13 +576,16 @@
       <c r="D8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>35</v>
@@ -557,13 +593,16 @@
       <c r="D9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>36</v>
@@ -571,13 +610,16 @@
       <c r="D10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>37</v>
@@ -585,13 +627,16 @@
       <c r="D11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12">
         <v>38</v>
@@ -599,13 +644,16 @@
       <c r="D12">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>39</v>
@@ -613,18 +661,24 @@
       <c r="D13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14">
         <v>40</v>
       </c>
       <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
         <v>5</v>
       </c>
     </row>

--- a/Assets/Res/File/Excel2Json2Cs/Output/Excel/RoleInformation.xlsx
+++ b/Assets/Res/File/Excel2Json2Cs/Output/Excel/RoleInformation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity\projects\NewGame\Assets\Res\File\Excel2Json2Cs\Output\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B336443-C3E0-4AE0-8834-7BD1E3A1D600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E5CAAD-067A-4208-8285-FFB71AD963A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5340" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +104,18 @@
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色12</t>
+  </si>
+  <si>
+    <t>角色13</t>
+  </si>
+  <si>
+    <t>角色14</t>
+  </si>
+  <si>
+    <t>角色15</t>
   </si>
 </sst>
 </file>
@@ -431,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -682,6 +694,74 @@
         <v>5</v>
       </c>
     </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>41</v>
+      </c>
+      <c r="D15">
+        <v>-1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>42</v>
+      </c>
+      <c r="D16">
+        <v>-1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <v>43</v>
+      </c>
+      <c r="D17">
+        <v>-1</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18">
+        <v>44</v>
+      </c>
+      <c r="D18">
+        <v>-1</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Res/File/Excel2Json2Cs/Output/Excel/RoleInformation.xlsx
+++ b/Assets/Res/File/Excel2Json2Cs/Output/Excel/RoleInformation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity\projects\NewGame\Assets\Res\File\Excel2Json2Cs\Output\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E5CAAD-067A-4208-8285-FFB71AD963A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5A1A69-FD3B-47ED-B71A-FCC5CE089E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="5340" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,6 +116,13 @@
   </si>
   <si>
     <t>角色15</t>
+  </si>
+  <si>
+    <t>人物默认状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoleType</t>
   </si>
 </sst>
 </file>
@@ -443,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -454,9 +461,10 @@
     <col min="3" max="3" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="16.21875" customWidth="1"/>
     <col min="5" max="5" width="15.109375" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -472,8 +480,11 @@
       <c r="E1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -489,8 +500,11 @@
       <c r="E2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -506,8 +520,11 @@
       <c r="E3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -523,8 +540,11 @@
       <c r="E4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -540,8 +560,11 @@
       <c r="E5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -557,8 +580,11 @@
       <c r="E6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -574,8 +600,11 @@
       <c r="E7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -591,8 +620,11 @@
       <c r="E8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -608,8 +640,11 @@
       <c r="E9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -625,8 +660,11 @@
       <c r="E10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -642,8 +680,11 @@
       <c r="E11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -659,8 +700,11 @@
       <c r="E12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -676,8 +720,11 @@
       <c r="E13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -693,8 +740,11 @@
       <c r="E14">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -710,8 +760,11 @@
       <c r="E15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -727,8 +780,11 @@
       <c r="E16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -744,8 +800,11 @@
       <c r="E17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -760,6 +819,9 @@
       </c>
       <c r="E18">
         <v>3</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Res/File/Excel2Json2Cs/Output/Excel/RoleInformation.xlsx
+++ b/Assets/Res/File/Excel2Json2Cs/Output/Excel/RoleInformation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity\projects\NewGame\Assets\Res\File\Excel2Json2Cs\Output\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gameMake\unity\projects\newGame\Assets\Res\File\Excel2Json2Cs\Output\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5A1A69-FD3B-47ED-B71A-FCC5CE089E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C92977-F348-4EA7-A5E3-13B4138922B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5340" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,30 +25,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>Name</t>
   </si>
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>角色年龄</t>
   </si>
   <si>
@@ -56,40 +45,6 @@
   </si>
   <si>
     <t>FamilyId</t>
-  </si>
-  <si>
-    <t>角色1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色2</t>
-  </si>
-  <si>
-    <t>角色3</t>
-  </si>
-  <si>
-    <t>角色4</t>
-  </si>
-  <si>
-    <t>角色5</t>
-  </si>
-  <si>
-    <t>角色6</t>
-  </si>
-  <si>
-    <t>角色7</t>
-  </si>
-  <si>
-    <t>角色8</t>
-  </si>
-  <si>
-    <t>角色9</t>
-  </si>
-  <si>
-    <t>角色10</t>
-  </si>
-  <si>
-    <t>角色11</t>
   </si>
   <si>
     <t>所在家族编号</t>
@@ -104,18 +59,6 @@
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色12</t>
-  </si>
-  <si>
-    <t>角色13</t>
-  </si>
-  <si>
-    <t>角色14</t>
-  </si>
-  <si>
-    <t>角色15</t>
   </si>
   <si>
     <t>人物默认状态</t>
@@ -450,377 +393,323 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
+      <c r="B4">
+        <v>30</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
+      <c r="B5">
+        <v>31</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
+      <c r="B6">
+        <v>32</v>
       </c>
       <c r="C6">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
+      <c r="B7">
+        <v>33</v>
       </c>
       <c r="C7">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
-        <v>13</v>
+      <c r="B8">
+        <v>34</v>
       </c>
       <c r="C8">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
-        <v>14</v>
+      <c r="B9">
+        <v>35</v>
       </c>
       <c r="C9">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
-        <v>15</v>
+      <c r="B10">
+        <v>36</v>
       </c>
       <c r="C10">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="D10">
         <v>3</v>
       </c>
       <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
-        <v>16</v>
+      <c r="B11">
+        <v>37</v>
       </c>
       <c r="C11">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
-        <v>17</v>
+      <c r="B12">
+        <v>38</v>
       </c>
       <c r="C12">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" t="s">
-        <v>18</v>
+      <c r="B13">
+        <v>39</v>
       </c>
       <c r="C13">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13">
-        <v>4</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
-      <c r="B14" t="s">
-        <v>19</v>
+      <c r="B14">
+        <v>40</v>
       </c>
       <c r="C14">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="D14">
         <v>5</v>
       </c>
       <c r="E14">
-        <v>5</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
-      <c r="B15" t="s">
-        <v>24</v>
+      <c r="B15">
+        <v>41</v>
       </c>
       <c r="C15">
-        <v>41</v>
+        <v>-1</v>
       </c>
       <c r="D15">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
+      <c r="B16">
+        <v>42</v>
       </c>
       <c r="C16">
-        <v>42</v>
+        <v>-1</v>
       </c>
       <c r="D16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
+      <c r="B17">
+        <v>43</v>
       </c>
       <c r="C17">
-        <v>43</v>
+        <v>-1</v>
       </c>
       <c r="D17">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
-      <c r="B18" t="s">
-        <v>27</v>
+      <c r="B18">
+        <v>44</v>
       </c>
       <c r="C18">
-        <v>44</v>
+        <v>-1</v>
       </c>
       <c r="D18">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
         <v>0</v>
       </c>
     </row>
